--- a/resources/data-imports/Monsters/labyrinth-raid-monsters.xlsx
+++ b/resources/data-imports/Monsters/labyrinth-raid-monsters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -178,6 +178,9 @@
     <t xml:space="preserve">19659784-38234962</t>
   </si>
   <si>
+    <t xml:space="preserve">Helm of Light</t>
+  </si>
+  <si>
     <t xml:space="preserve">Labyrinth</t>
   </si>
   <si>
@@ -199,6 +202,9 @@
     <t xml:space="preserve">26777309-55013565</t>
   </si>
   <si>
+    <t xml:space="preserve">Silver Jewelled Dagger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fettered Maiden of Deception</t>
   </si>
   <si>
@@ -223,6 +229,9 @@
     <t xml:space="preserve">40428207-89361122</t>
   </si>
   <si>
+    <t xml:space="preserve">Silver Glistening Moss</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cursed Minotaur</t>
   </si>
   <si>
@@ -241,6 +250,9 @@
     <t xml:space="preserve">55064621-128575356</t>
   </si>
   <si>
+    <t xml:space="preserve">Tome of the little ascension</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corrupted and vengeful memory</t>
   </si>
   <si>
@@ -253,10 +265,16 @@
     <t xml:space="preserve">67659913-163869131</t>
   </si>
   <si>
+    <t xml:space="preserve">Silver Enchanted Ring of the Labyrinth</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chains of the walls</t>
   </si>
   <si>
     <t xml:space="preserve">75000000-185000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sand of the Labyrinth</t>
   </si>
 </sst>
 </file>
@@ -272,6 +290,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -294,6 +313,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -345,7 +365,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -360,6 +380,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -488,10 +512,13 @@
   <dimension ref="A1:AX15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO17" activeCellId="0" sqref="AO17"/>
+      <selection pane="topLeft" activeCell="AN16" activeCellId="0" sqref="AN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="19.32"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -608,7 +635,7 @@
       <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="0" t="s">
         <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
@@ -756,12 +783,14 @@
       <c r="AL2" s="2" t="n">
         <v>0.2406045773952</v>
       </c>
-      <c r="AM2" s="2"/>
+      <c r="AM2" s="0" t="s">
+        <v>52</v>
+      </c>
       <c r="AN2" s="2" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2" t="n">
@@ -788,7 +817,7 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>36205053.093599</v>
@@ -855,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA3" s="3" t="n">
         <v>36205053.093599</v>
@@ -896,12 +925,8 @@
       <c r="AL3" s="2" t="n">
         <v>0.263900874996913</v>
       </c>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AO3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2" t="n">
@@ -928,7 +953,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>52315675.372832</v>
@@ -995,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA4" s="3" t="n">
         <v>52315675.372832</v>
@@ -1036,12 +1061,8 @@
       <c r="AL4" s="2" t="n">
         <v>0.289452813317614</v>
       </c>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AO4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2" t="n">
@@ -1068,7 +1089,7 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>75595245.8525583</v>
@@ -1135,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA5" s="3" t="n">
         <v>75595245.8525583</v>
@@ -1176,12 +1197,14 @@
       <c r="AL5" s="2" t="n">
         <v>0.317478792514279</v>
       </c>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2" t="n">
-        <v>0.01</v>
+      <c r="AM5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN5" s="0" t="n">
+        <v>0.08</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2" t="n">
@@ -1208,7 +1231,7 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>109233822.459194</v>
@@ -1275,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA6" s="3" t="n">
         <v>109233822.459194</v>
@@ -1317,11 +1340,8 @@
         <v>0.348218359120681</v>
       </c>
       <c r="AM6" s="2"/>
-      <c r="AN6" s="2" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AO6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2" t="n">
@@ -1348,7 +1368,7 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>157840983.708406</v>
@@ -1415,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AA7" s="3" t="n">
         <v>157840983.708406</v>
@@ -1457,11 +1477,8 @@
         <v>0.381934253524182</v>
       </c>
       <c r="AM7" s="2"/>
-      <c r="AN7" s="2" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AO7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2" t="n">
@@ -1488,7 +1505,7 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>228077490.809629</v>
@@ -1555,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA8" s="3" t="n">
         <v>228077490.809629</v>
@@ -1597,11 +1614,8 @@
         <v>0.418914655687407</v>
       </c>
       <c r="AM8" s="2"/>
-      <c r="AN8" s="2" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AO8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2" t="n">
@@ -1625,10 +1639,10 @@
       </c>
       <c r="AX8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="16.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>329568028.479322</v>
@@ -1695,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AA9" s="3" t="n">
         <v>329568028.479322</v>
@@ -1736,12 +1750,14 @@
       <c r="AL9" s="2" t="n">
         <v>0.459475648309685</v>
       </c>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2" t="n">
-        <v>1</v>
+      <c r="AM9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN9" s="0" t="n">
+        <v>0.12</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2" t="n">
@@ -1768,7 +1784,7 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>476220099.625728</v>
@@ -1835,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AA10" s="3" t="n">
         <v>476220099.625728</v>
@@ -1877,11 +1893,8 @@
         <v>0.503963918481622</v>
       </c>
       <c r="AM10" s="2"/>
-      <c r="AN10" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AO10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2" t="n">
@@ -1908,7 +1921,7 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>688129805.351454</v>
@@ -1975,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AA11" s="3" t="n">
         <v>688129805.351454</v>
@@ -2017,11 +2030,8 @@
         <v>0.552759720924687</v>
       </c>
       <c r="AM11" s="2"/>
-      <c r="AN11" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AO11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2" t="n">
@@ -2045,10 +2055,10 @@
       </c>
       <c r="AX11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>994335664.087218</v>
@@ -2115,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA12" s="3" t="n">
         <v>994335664.087218</v>
@@ -2156,12 +2166,14 @@
       <c r="AL12" s="2" t="n">
         <v>0.606280128143498</v>
       </c>
-      <c r="AM12" s="2"/>
-      <c r="AN12" s="2" t="n">
-        <v>1</v>
+      <c r="AM12" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN12" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2" t="n">
@@ -2188,7 +2200,7 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>1436797832.59904</v>
@@ -2255,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AA13" s="3" t="n">
         <v>1436797832.59904</v>
@@ -2297,11 +2309,8 @@
         <v>0.664982595270864</v>
       </c>
       <c r="AM13" s="2"/>
-      <c r="AN13" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AO13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2" t="n">
@@ -2328,7 +2337,7 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>2076148011.50311</v>
@@ -2395,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AA14" s="3" t="n">
         <v>2076148011.50311</v>
@@ -2436,12 +2445,14 @@
       <c r="AL14" s="2" t="n">
         <v>0.729368870075371</v>
       </c>
-      <c r="AM14" s="2"/>
-      <c r="AN14" s="2" t="n">
-        <v>1</v>
+      <c r="AM14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN14" s="0" t="n">
+        <v>0.18</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2" t="n">
@@ -2468,7 +2479,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>2999997959.2614</v>
@@ -2535,10 +2546,10 @@
         <v>0</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AA15" s="3" t="n">
         <v>2999997959.2614</v>
@@ -2576,12 +2587,14 @@
       <c r="AL15" s="2" t="n">
         <v>0.799989281551548</v>
       </c>
-      <c r="AM15" s="2"/>
-      <c r="AN15" s="2" t="n">
-        <v>1</v>
+      <c r="AM15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN15" s="0" t="n">
+        <v>0.3</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2" t="n">
